--- a/data/pca/factorExposure/factorExposure_2016-01-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0158298315890228</v>
+        <v>0.01691633340889676</v>
       </c>
       <c r="C2">
-        <v>0.02909747655195686</v>
+        <v>-0.03278099594986545</v>
       </c>
       <c r="D2">
-        <v>-0.08923030585758658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1164214072443135</v>
+      </c>
+      <c r="E2">
+        <v>-0.08052029830415539</v>
+      </c>
+      <c r="F2">
+        <v>-0.007273673259736079</v>
+      </c>
+      <c r="G2">
+        <v>0.05403479073073656</v>
+      </c>
+      <c r="H2">
+        <v>0.09582795818402673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01439047791726201</v>
+        <v>0.008484119954960711</v>
       </c>
       <c r="C3">
-        <v>0.05640237143456942</v>
+        <v>-0.03357584050965871</v>
       </c>
       <c r="D3">
-        <v>-0.140207798068532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07971694624764614</v>
+      </c>
+      <c r="E3">
+        <v>-0.08765745733181099</v>
+      </c>
+      <c r="F3">
+        <v>-0.03992652013145695</v>
+      </c>
+      <c r="G3">
+        <v>0.09040348321938206</v>
+      </c>
+      <c r="H3">
+        <v>0.02217919245289516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04939170456282228</v>
+        <v>0.05446950372194524</v>
       </c>
       <c r="C4">
-        <v>0.03475650192277639</v>
+        <v>-0.06449950213953388</v>
       </c>
       <c r="D4">
-        <v>-0.1239649369695366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1370413340487256</v>
+      </c>
+      <c r="E4">
+        <v>-0.0574584307687642</v>
+      </c>
+      <c r="F4">
+        <v>-0.02120835483398004</v>
+      </c>
+      <c r="G4">
+        <v>-0.02447872765418058</v>
+      </c>
+      <c r="H4">
+        <v>-0.02894926917686992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04547501042544008</v>
+        <v>0.04122954211722982</v>
       </c>
       <c r="C6">
-        <v>0.007957419210157447</v>
+        <v>-0.02576748271006819</v>
       </c>
       <c r="D6">
-        <v>-0.1227573875885801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1262198764623559</v>
+      </c>
+      <c r="E6">
+        <v>-0.04034516658127774</v>
+      </c>
+      <c r="F6">
+        <v>-0.0148236984498854</v>
+      </c>
+      <c r="G6">
+        <v>0.01720977892906309</v>
+      </c>
+      <c r="H6">
+        <v>0.00627753579328978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02201657806797779</v>
+        <v>0.01582626552641414</v>
       </c>
       <c r="C7">
-        <v>0.01064431494954256</v>
+        <v>-0.03111470225910425</v>
       </c>
       <c r="D7">
-        <v>-0.08651017866988236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09383790956186353</v>
+      </c>
+      <c r="E7">
+        <v>-0.04236560302533701</v>
+      </c>
+      <c r="F7">
+        <v>-0.01489841264339817</v>
+      </c>
+      <c r="G7">
+        <v>-0.01630059358167172</v>
+      </c>
+      <c r="H7">
+        <v>0.1044032052059699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008992206722126802</v>
+        <v>0.008056445125210374</v>
       </c>
       <c r="C8">
-        <v>0.02566825608734356</v>
+        <v>-0.03558338184659787</v>
       </c>
       <c r="D8">
-        <v>-0.06598814875935792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07466694317935456</v>
+      </c>
+      <c r="E8">
+        <v>-0.03937407674394564</v>
+      </c>
+      <c r="F8">
+        <v>-0.03595952514516521</v>
+      </c>
+      <c r="G8">
+        <v>0.009004441189224041</v>
+      </c>
+      <c r="H8">
+        <v>0.0300537984831581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03933686109885002</v>
+        <v>0.04129802432404916</v>
       </c>
       <c r="C9">
-        <v>0.03180700923847471</v>
+        <v>-0.05726861101988658</v>
       </c>
       <c r="D9">
-        <v>-0.1051007470466271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1177094922827397</v>
+      </c>
+      <c r="E9">
+        <v>-0.04526581684412165</v>
+      </c>
+      <c r="F9">
+        <v>-0.002436961826661512</v>
+      </c>
+      <c r="G9">
+        <v>-0.0156631408435696</v>
+      </c>
+      <c r="H9">
+        <v>0.006259879841163105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09738488725143014</v>
+        <v>0.1307788432253386</v>
       </c>
       <c r="C10">
-        <v>-0.1991936242065523</v>
+        <v>0.1945368041446991</v>
       </c>
       <c r="D10">
-        <v>0.01042991694226421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003757763981903608</v>
+      </c>
+      <c r="E10">
+        <v>-0.05351938399162313</v>
+      </c>
+      <c r="F10">
+        <v>-0.01287445085280372</v>
+      </c>
+      <c r="G10">
+        <v>-0.03975541703856062</v>
+      </c>
+      <c r="H10">
+        <v>-0.007238809375226229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03358624995525948</v>
+        <v>0.02892286223071798</v>
       </c>
       <c r="C11">
-        <v>0.03616837249820508</v>
+        <v>-0.04275219434983092</v>
       </c>
       <c r="D11">
-        <v>-0.06151025673201552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06029138647334317</v>
+      </c>
+      <c r="E11">
+        <v>-0.006923316082111482</v>
+      </c>
+      <c r="F11">
+        <v>-0.00678435785791918</v>
+      </c>
+      <c r="G11">
+        <v>-0.001202109656498064</v>
+      </c>
+      <c r="H11">
+        <v>0.05164631164116446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03781478769440812</v>
+        <v>0.03298827818046181</v>
       </c>
       <c r="C12">
-        <v>0.03408135613203087</v>
+        <v>-0.04301363845024318</v>
       </c>
       <c r="D12">
-        <v>-0.05844817482684599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05711710017722307</v>
+      </c>
+      <c r="E12">
+        <v>-0.01880232657431265</v>
+      </c>
+      <c r="F12">
+        <v>-0.001720141803053952</v>
+      </c>
+      <c r="G12">
+        <v>-0.002862137563336175</v>
+      </c>
+      <c r="H12">
+        <v>0.06173324065550118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01333571969740848</v>
+        <v>0.01903269956160578</v>
       </c>
       <c r="C13">
-        <v>0.02269525464980669</v>
+        <v>-0.03755759441112375</v>
       </c>
       <c r="D13">
-        <v>-0.1208063842138571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1414884662813937</v>
+      </c>
+      <c r="E13">
+        <v>-0.07626729172126656</v>
+      </c>
+      <c r="F13">
+        <v>-0.02574720567439283</v>
+      </c>
+      <c r="G13">
+        <v>0.002688353123404699</v>
+      </c>
+      <c r="H13">
+        <v>0.09208847996108249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00952315960074971</v>
+        <v>0.006771093002696908</v>
       </c>
       <c r="C14">
-        <v>0.009395805201848849</v>
+        <v>-0.02181419454089939</v>
       </c>
       <c r="D14">
-        <v>-0.07634883229562878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08434935851063047</v>
+      </c>
+      <c r="E14">
+        <v>-0.04528624538090285</v>
+      </c>
+      <c r="F14">
+        <v>0.01300138847947173</v>
+      </c>
+      <c r="G14">
+        <v>0.003964556069481767</v>
+      </c>
+      <c r="H14">
+        <v>0.09932479776142795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.00167495572575572</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.008087397676383588</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0272212188934406</v>
+      </c>
+      <c r="E15">
+        <v>-0.006919032842166812</v>
+      </c>
+      <c r="F15">
+        <v>0.002996469443912972</v>
+      </c>
+      <c r="G15">
+        <v>0.007624838472417048</v>
+      </c>
+      <c r="H15">
+        <v>0.01204459730690591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03564723542444277</v>
+        <v>0.02977529629143136</v>
       </c>
       <c r="C16">
-        <v>0.03844561807747909</v>
+        <v>-0.04392836421371463</v>
       </c>
       <c r="D16">
-        <v>-0.06680147306338777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06207638023439505</v>
+      </c>
+      <c r="E16">
+        <v>-0.02040433292286226</v>
+      </c>
+      <c r="F16">
+        <v>0.006771369625418556</v>
+      </c>
+      <c r="G16">
+        <v>0.003061078601242708</v>
+      </c>
+      <c r="H16">
+        <v>0.05892501593400599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01005256797031582</v>
+        <v>0.01097949174483723</v>
       </c>
       <c r="C19">
-        <v>0.02198489681593243</v>
+        <v>-0.02392019529748752</v>
       </c>
       <c r="D19">
-        <v>-0.1655876060137867</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1314689314976696</v>
+      </c>
+      <c r="E19">
+        <v>-0.07081715879711284</v>
+      </c>
+      <c r="F19">
+        <v>0.02754165960025927</v>
+      </c>
+      <c r="G19">
+        <v>0.01571638270684135</v>
+      </c>
+      <c r="H19">
+        <v>0.05355150421244421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01815208856329485</v>
+        <v>0.01535568847496221</v>
       </c>
       <c r="C20">
-        <v>0.0164200467768454</v>
+        <v>-0.03068676969047857</v>
       </c>
       <c r="D20">
-        <v>-0.08290785585134666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09455409419012963</v>
+      </c>
+      <c r="E20">
+        <v>-0.06295831525573579</v>
+      </c>
+      <c r="F20">
+        <v>0.006076779710477494</v>
+      </c>
+      <c r="G20">
+        <v>3.634429320089502e-05</v>
+      </c>
+      <c r="H20">
+        <v>0.05504247947136943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009339243575406267</v>
+        <v>0.01434682048778584</v>
       </c>
       <c r="C21">
-        <v>0.01710155047024544</v>
+        <v>-0.03516676223676862</v>
       </c>
       <c r="D21">
-        <v>-0.1210773630462052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1360001862073982</v>
+      </c>
+      <c r="E21">
+        <v>-0.0990158116235164</v>
+      </c>
+      <c r="F21">
+        <v>0.01121283692115937</v>
+      </c>
+      <c r="G21">
+        <v>-0.03552375004873403</v>
+      </c>
+      <c r="H21">
+        <v>0.1077192288140096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001932385556048739</v>
+        <v>0.005072522900657551</v>
       </c>
       <c r="C22">
-        <v>0.01316532754309963</v>
+        <v>-0.03818610368571339</v>
       </c>
       <c r="D22">
-        <v>-0.06225521719114492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1233985041164067</v>
+      </c>
+      <c r="E22">
+        <v>-0.03378691062585288</v>
+      </c>
+      <c r="F22">
+        <v>-0.07525483496774285</v>
+      </c>
+      <c r="G22">
+        <v>0.06090450427954483</v>
+      </c>
+      <c r="H22">
+        <v>-0.03028297255320702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001943970648061711</v>
+        <v>0.005166248643721568</v>
       </c>
       <c r="C23">
-        <v>0.01306696616731401</v>
+        <v>-0.03862342221810467</v>
       </c>
       <c r="D23">
-        <v>-0.06182579969217319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1228541816049003</v>
+      </c>
+      <c r="E23">
+        <v>-0.03400430748730909</v>
+      </c>
+      <c r="F23">
+        <v>-0.07516985712697753</v>
+      </c>
+      <c r="G23">
+        <v>0.06003849910499455</v>
+      </c>
+      <c r="H23">
+        <v>-0.03052060242936963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03466658111119977</v>
+        <v>0.03180740657285899</v>
       </c>
       <c r="C24">
-        <v>0.04133326646102157</v>
+        <v>-0.05336095470202384</v>
       </c>
       <c r="D24">
-        <v>-0.06895115494786491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06675456876072783</v>
+      </c>
+      <c r="E24">
+        <v>-0.02372899346436325</v>
+      </c>
+      <c r="F24">
+        <v>0.003848428010186268</v>
+      </c>
+      <c r="G24">
+        <v>-0.006999629054317876</v>
+      </c>
+      <c r="H24">
+        <v>0.06797193504942756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04147248716475807</v>
+        <v>0.0365438921159101</v>
       </c>
       <c r="C25">
-        <v>0.04448548610177589</v>
+        <v>-0.05206137354506282</v>
       </c>
       <c r="D25">
-        <v>-0.06842554063354025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06366274069925398</v>
+      </c>
+      <c r="E25">
+        <v>-0.02450931725835725</v>
+      </c>
+      <c r="F25">
+        <v>-0.008469037382898817</v>
+      </c>
+      <c r="G25">
+        <v>-0.01302707870837437</v>
+      </c>
+      <c r="H25">
+        <v>0.0554495205718176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02315021893535282</v>
+        <v>0.02126550470860855</v>
       </c>
       <c r="C26">
-        <v>0.003614708607963953</v>
+        <v>-0.01617029567669075</v>
       </c>
       <c r="D26">
-        <v>-0.05108603132260706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06454967475578278</v>
+      </c>
+      <c r="E26">
+        <v>-0.03052938223399585</v>
+      </c>
+      <c r="F26">
+        <v>0.004119573552963741</v>
+      </c>
+      <c r="G26">
+        <v>0.00620170410274756</v>
+      </c>
+      <c r="H26">
+        <v>0.05652745715549506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1343895213226513</v>
+        <v>0.1847577288512174</v>
       </c>
       <c r="C28">
-        <v>-0.2744855743592415</v>
+        <v>0.2586750459680608</v>
       </c>
       <c r="D28">
-        <v>0.05173098915927558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01689640413915595</v>
+      </c>
+      <c r="E28">
+        <v>-0.06962513327842024</v>
+      </c>
+      <c r="F28">
+        <v>-0.002579041858228402</v>
+      </c>
+      <c r="G28">
+        <v>-0.07785839783397912</v>
+      </c>
+      <c r="H28">
+        <v>0.006171690503402741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003133117569000895</v>
+        <v>0.005593196094953315</v>
       </c>
       <c r="C29">
-        <v>0.009136616834849716</v>
+        <v>-0.02038556907299793</v>
       </c>
       <c r="D29">
-        <v>-0.05967450454185217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07799171082732642</v>
+      </c>
+      <c r="E29">
+        <v>-0.048212616644147</v>
+      </c>
+      <c r="F29">
+        <v>-0.001205103529277984</v>
+      </c>
+      <c r="G29">
+        <v>-0.01231777172298017</v>
+      </c>
+      <c r="H29">
+        <v>0.09955022944745974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04311022360697375</v>
+        <v>0.04355496378844079</v>
       </c>
       <c r="C30">
-        <v>0.02733618995070738</v>
+        <v>-0.05749128489279184</v>
       </c>
       <c r="D30">
-        <v>-0.1590709329339574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1739920397455551</v>
+      </c>
+      <c r="E30">
+        <v>-0.03353012314867047</v>
+      </c>
+      <c r="F30">
+        <v>-0.002580267986258791</v>
+      </c>
+      <c r="G30">
+        <v>0.04229196314158726</v>
+      </c>
+      <c r="H30">
+        <v>0.010605375344659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06526834166236661</v>
+        <v>0.05754628418913269</v>
       </c>
       <c r="C31">
-        <v>0.04253042838500564</v>
+        <v>-0.07009208987321394</v>
       </c>
       <c r="D31">
-        <v>-0.06107517296617757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05252237701990007</v>
+      </c>
+      <c r="E31">
+        <v>-0.04344972505300686</v>
+      </c>
+      <c r="F31">
+        <v>-0.04153281332176562</v>
+      </c>
+      <c r="G31">
+        <v>-0.006480661746914381</v>
+      </c>
+      <c r="H31">
+        <v>0.02602870882495524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001162331534744143</v>
+        <v>0.00923711482403955</v>
       </c>
       <c r="C32">
-        <v>-0.008578683085425986</v>
+        <v>-0.01426204796771841</v>
       </c>
       <c r="D32">
-        <v>-0.05424907409554865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09122188854854008</v>
+      </c>
+      <c r="E32">
+        <v>-0.09141742704038651</v>
+      </c>
+      <c r="F32">
+        <v>0.002162090595452557</v>
+      </c>
+      <c r="G32">
+        <v>-0.05320964624927579</v>
+      </c>
+      <c r="H32">
+        <v>0.09476577364068395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02568624856415412</v>
+        <v>0.02448542528498987</v>
       </c>
       <c r="C33">
-        <v>0.0233320152264075</v>
+        <v>-0.04195816347979549</v>
       </c>
       <c r="D33">
-        <v>-0.1315172845524598</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1336219984304703</v>
+      </c>
+      <c r="E33">
+        <v>-0.05758820628050366</v>
+      </c>
+      <c r="F33">
+        <v>-0.01800088438361374</v>
+      </c>
+      <c r="G33">
+        <v>0.0001561520440596241</v>
+      </c>
+      <c r="H33">
+        <v>0.06302826126897622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03082309229863304</v>
+        <v>0.02890102614810574</v>
       </c>
       <c r="C34">
-        <v>0.05227112728298556</v>
+        <v>-0.06041310146238454</v>
       </c>
       <c r="D34">
-        <v>-0.06685195032133327</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06119905108675103</v>
+      </c>
+      <c r="E34">
+        <v>-0.006104782192717782</v>
+      </c>
+      <c r="F34">
+        <v>0.002655343891716557</v>
+      </c>
+      <c r="G34">
+        <v>-0.009213009947277424</v>
+      </c>
+      <c r="H34">
+        <v>0.07392676950587024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005512683146090853</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0001897814594450562</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.002947746592021584</v>
+      </c>
+      <c r="E35">
+        <v>-0.0006612417496472565</v>
+      </c>
+      <c r="F35">
+        <v>4.923177090767587e-06</v>
+      </c>
+      <c r="G35">
+        <v>0.0001655854737737555</v>
+      </c>
+      <c r="H35">
+        <v>0.002790665618301859</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02048729473207242</v>
+        <v>0.01828795802839482</v>
       </c>
       <c r="C36">
-        <v>-0.001296602842719162</v>
+        <v>-0.01343704207613582</v>
       </c>
       <c r="D36">
-        <v>-0.06710596648637088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07670704842897177</v>
+      </c>
+      <c r="E36">
+        <v>-0.04128838363542817</v>
+      </c>
+      <c r="F36">
+        <v>0.003182543539516092</v>
+      </c>
+      <c r="G36">
+        <v>-0.009071410507566468</v>
+      </c>
+      <c r="H36">
+        <v>0.05112926686869138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02747544182225795</v>
+        <v>0.02243537752179163</v>
       </c>
       <c r="C38">
-        <v>0.02113750550940076</v>
+        <v>-0.02230804259589913</v>
       </c>
       <c r="D38">
-        <v>-0.05394997183814302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05959101737411499</v>
+      </c>
+      <c r="E38">
+        <v>-0.04278611960469342</v>
+      </c>
+      <c r="F38">
+        <v>0.004455335141179727</v>
+      </c>
+      <c r="G38">
+        <v>0.03505882251519741</v>
+      </c>
+      <c r="H38">
+        <v>0.03585303387014835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04073740332230936</v>
+        <v>0.03704107944338472</v>
       </c>
       <c r="C39">
-        <v>0.04769231095333916</v>
+        <v>-0.06178640277939029</v>
       </c>
       <c r="D39">
-        <v>-0.08898934789628526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1026394306611796</v>
+      </c>
+      <c r="E39">
+        <v>-0.02250845435546711</v>
+      </c>
+      <c r="F39">
+        <v>0.02151516629773052</v>
+      </c>
+      <c r="G39">
+        <v>0.007464251619165425</v>
+      </c>
+      <c r="H39">
+        <v>0.0864527570312823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01596684491954888</v>
+        <v>0.0147595182861219</v>
       </c>
       <c r="C40">
-        <v>0.03548393278383612</v>
+        <v>-0.03470730637894867</v>
       </c>
       <c r="D40">
-        <v>-0.07439194620846261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08404379237509946</v>
+      </c>
+      <c r="E40">
+        <v>-0.08329703769986536</v>
+      </c>
+      <c r="F40">
+        <v>-0.05397135837158366</v>
+      </c>
+      <c r="G40">
+        <v>0.03242444027914897</v>
+      </c>
+      <c r="H40">
+        <v>0.1546931240375898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.025329027326513</v>
+        <v>0.02274968553274638</v>
       </c>
       <c r="C41">
-        <v>-0.01022015304584785</v>
+        <v>-0.007527683489320111</v>
       </c>
       <c r="D41">
-        <v>-0.06677553273916741</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0581412410109642</v>
+      </c>
+      <c r="E41">
+        <v>-0.0559202180589311</v>
+      </c>
+      <c r="F41">
+        <v>0.001473520405902023</v>
+      </c>
+      <c r="G41">
+        <v>0.006473689332713383</v>
+      </c>
+      <c r="H41">
+        <v>0.04284846997886316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03496678374716272</v>
+        <v>0.02554785477201856</v>
       </c>
       <c r="C43">
-        <v>0.0008816199864000285</v>
+        <v>-0.01725175921917753</v>
       </c>
       <c r="D43">
-        <v>-0.1065480311736802</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08901410219650222</v>
+      </c>
+      <c r="E43">
+        <v>-0.04394078961313397</v>
+      </c>
+      <c r="F43">
+        <v>-0.005378780561481456</v>
+      </c>
+      <c r="G43">
+        <v>0.01060368277999983</v>
+      </c>
+      <c r="H43">
+        <v>0.05965852237479188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01240443645881001</v>
+        <v>0.0165991603777632</v>
       </c>
       <c r="C44">
-        <v>0.0352401770593969</v>
+        <v>-0.04047687275481843</v>
       </c>
       <c r="D44">
-        <v>-0.07897686256355574</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09561971992881074</v>
+      </c>
+      <c r="E44">
+        <v>-0.08030608312003198</v>
+      </c>
+      <c r="F44">
+        <v>0.002256925881994048</v>
+      </c>
+      <c r="G44">
+        <v>-0.009498804010361047</v>
+      </c>
+      <c r="H44">
+        <v>0.07005403393214922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01863596850226141</v>
+        <v>0.01595180369177421</v>
       </c>
       <c r="C46">
-        <v>0.01244244474429687</v>
+        <v>-0.02776218128330522</v>
       </c>
       <c r="D46">
-        <v>-0.0692585949569071</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08804803564821298</v>
+      </c>
+      <c r="E46">
+        <v>-0.05027836418249318</v>
+      </c>
+      <c r="F46">
+        <v>0.02080795091471866</v>
+      </c>
+      <c r="G46">
+        <v>-0.02007551310139661</v>
+      </c>
+      <c r="H46">
+        <v>0.09947859148285987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09287193258973228</v>
+        <v>0.08698365320052541</v>
       </c>
       <c r="C47">
-        <v>0.06517387262900608</v>
+        <v>-0.0877824967403026</v>
       </c>
       <c r="D47">
-        <v>-0.03891199521662256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03287351503643898</v>
+      </c>
+      <c r="E47">
+        <v>-0.03868841034554579</v>
+      </c>
+      <c r="F47">
+        <v>-0.02330812900405632</v>
+      </c>
+      <c r="G47">
+        <v>-0.05830511935961268</v>
+      </c>
+      <c r="H47">
+        <v>0.006435262484281186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02128997697962973</v>
+        <v>0.01940976220592507</v>
       </c>
       <c r="C48">
-        <v>0.004995606496929744</v>
+        <v>-0.01887370575900094</v>
       </c>
       <c r="D48">
-        <v>-0.06662377521605241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07855109488876538</v>
+      </c>
+      <c r="E48">
+        <v>-0.05577950761088983</v>
+      </c>
+      <c r="F48">
+        <v>0.01469829161349854</v>
+      </c>
+      <c r="G48">
+        <v>-0.005624695996234338</v>
+      </c>
+      <c r="H48">
+        <v>0.05281517045160817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07783504072004044</v>
+        <v>0.06231152642219701</v>
       </c>
       <c r="C50">
-        <v>0.05959885556435227</v>
+        <v>-0.06953113829811164</v>
       </c>
       <c r="D50">
-        <v>-0.06651931914155997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05843977536116143</v>
+      </c>
+      <c r="E50">
+        <v>-0.04741196724113878</v>
+      </c>
+      <c r="F50">
+        <v>-0.04259091686752396</v>
+      </c>
+      <c r="G50">
+        <v>0.009475984192228143</v>
+      </c>
+      <c r="H50">
+        <v>0.02904062170021798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.006862976031982214</v>
+        <v>0.007337488998904885</v>
       </c>
       <c r="C51">
-        <v>0.007328449621518076</v>
+        <v>-0.01406926627491636</v>
       </c>
       <c r="D51">
-        <v>-0.07900600999651382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08718374297342052</v>
+      </c>
+      <c r="E51">
+        <v>-0.03334343630833966</v>
+      </c>
+      <c r="F51">
+        <v>0.002979011890089548</v>
+      </c>
+      <c r="G51">
+        <v>0.01368582175946976</v>
+      </c>
+      <c r="H51">
+        <v>0.07907788078617979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0756216315851487</v>
+        <v>0.08777646144234798</v>
       </c>
       <c r="C53">
-        <v>0.08678963972199955</v>
+        <v>-0.09949438849256537</v>
       </c>
       <c r="D53">
-        <v>-0.0174557044824392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004467905057205695</v>
+      </c>
+      <c r="E53">
+        <v>-0.09758743203015741</v>
+      </c>
+      <c r="F53">
+        <v>-0.02950831254407938</v>
+      </c>
+      <c r="G53">
+        <v>-0.09693670099688739</v>
+      </c>
+      <c r="H53">
+        <v>-0.02273233626541043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03311602866599953</v>
+        <v>0.02646002704789224</v>
       </c>
       <c r="C54">
-        <v>0.01734761599288144</v>
+        <v>-0.03261341912449189</v>
       </c>
       <c r="D54">
-        <v>-0.08019651597724951</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08773221201094369</v>
+      </c>
+      <c r="E54">
+        <v>-0.05119389473599816</v>
+      </c>
+      <c r="F54">
+        <v>0.01910206252362911</v>
+      </c>
+      <c r="G54">
+        <v>0.007162312447679857</v>
+      </c>
+      <c r="H54">
+        <v>0.1098793920388078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08530608573056864</v>
+        <v>0.08551452492283826</v>
       </c>
       <c r="C55">
-        <v>0.0612002277736165</v>
+        <v>-0.07996846997517465</v>
       </c>
       <c r="D55">
-        <v>0.002624602606038737</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0128260150801266</v>
+      </c>
+      <c r="E55">
+        <v>-0.05849965728108838</v>
+      </c>
+      <c r="F55">
+        <v>-0.03177587386324102</v>
+      </c>
+      <c r="G55">
+        <v>-0.0463102187291561</v>
+      </c>
+      <c r="H55">
+        <v>-0.02375160072600314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1345907815904658</v>
+        <v>0.1340245395013781</v>
       </c>
       <c r="C56">
-        <v>0.1006518986148952</v>
+        <v>-0.1240454404018228</v>
       </c>
       <c r="D56">
-        <v>-0.005366001696875658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01334479613466185</v>
+      </c>
+      <c r="E56">
+        <v>-0.05817942005658162</v>
+      </c>
+      <c r="F56">
+        <v>-0.02040192716159616</v>
+      </c>
+      <c r="G56">
+        <v>-0.06678997455629353</v>
+      </c>
+      <c r="H56">
+        <v>-0.02155179781295218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03567262789041149</v>
+        <v>0.03647109978717931</v>
       </c>
       <c r="C58">
-        <v>-0.03521745732189058</v>
+        <v>-0.01423990117916563</v>
       </c>
       <c r="D58">
-        <v>-0.3880374519782616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3752335973999009</v>
+      </c>
+      <c r="E58">
+        <v>-0.2233334272361711</v>
+      </c>
+      <c r="F58">
+        <v>-0.1213895090783934</v>
+      </c>
+      <c r="G58">
+        <v>0.3797387112860256</v>
+      </c>
+      <c r="H58">
+        <v>-0.4277962116851403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1386809569838159</v>
+        <v>0.1680611363963029</v>
       </c>
       <c r="C59">
-        <v>-0.1897681280391861</v>
+        <v>0.1737172599326317</v>
       </c>
       <c r="D59">
-        <v>-0.01022665546716407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04608619728876605</v>
+      </c>
+      <c r="E59">
+        <v>-0.01659784704616679</v>
+      </c>
+      <c r="F59">
+        <v>0.03553627199640635</v>
+      </c>
+      <c r="G59">
+        <v>0.0003393146217326511</v>
+      </c>
+      <c r="H59">
+        <v>-0.0208597589425523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2593098684388825</v>
+        <v>0.2346432458173191</v>
       </c>
       <c r="C60">
-        <v>0.06186163504772701</v>
+        <v>-0.09511359489352762</v>
       </c>
       <c r="D60">
-        <v>-0.168772344983152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1251094112387253</v>
+      </c>
+      <c r="E60">
+        <v>0.3531557221131558</v>
+      </c>
+      <c r="F60">
+        <v>-0.08065778338041649</v>
+      </c>
+      <c r="G60">
+        <v>-0.02218452259265801</v>
+      </c>
+      <c r="H60">
+        <v>-0.06008547830987453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04584709869838122</v>
+        <v>0.04167797596388193</v>
       </c>
       <c r="C61">
-        <v>0.0457209921834067</v>
+        <v>-0.05643488063514548</v>
       </c>
       <c r="D61">
-        <v>-0.09987052429228198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09486464435342046</v>
+      </c>
+      <c r="E61">
+        <v>-0.02170371669618329</v>
+      </c>
+      <c r="F61">
+        <v>0.01012066128645471</v>
+      </c>
+      <c r="G61">
+        <v>-0.01245895654858202</v>
+      </c>
+      <c r="H61">
+        <v>0.07743852640327445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01553829717986874</v>
+        <v>0.0158114820297853</v>
       </c>
       <c r="C63">
-        <v>0.01373800900245238</v>
+        <v>-0.02902684520524074</v>
       </c>
       <c r="D63">
-        <v>-0.05541766146763526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0700726972034173</v>
+      </c>
+      <c r="E63">
+        <v>-0.05208472819011117</v>
+      </c>
+      <c r="F63">
+        <v>-0.0245793340036587</v>
+      </c>
+      <c r="G63">
+        <v>0.01260219163114393</v>
+      </c>
+      <c r="H63">
+        <v>0.04177491643450201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05409771955311924</v>
+        <v>0.05492715644833673</v>
       </c>
       <c r="C64">
-        <v>0.05599600273558173</v>
+        <v>-0.07427564773754816</v>
       </c>
       <c r="D64">
-        <v>-0.06257663951187088</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05542194816463193</v>
+      </c>
+      <c r="E64">
+        <v>-0.04100843227115488</v>
+      </c>
+      <c r="F64">
+        <v>0.01944340216968021</v>
+      </c>
+      <c r="G64">
+        <v>-0.04168495072671397</v>
+      </c>
+      <c r="H64">
+        <v>0.04829578296293775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06301592984068524</v>
+        <v>0.05335089414915232</v>
       </c>
       <c r="C65">
-        <v>0.004051083906139611</v>
+        <v>-0.02563774869678644</v>
       </c>
       <c r="D65">
-        <v>-0.1098830078266246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1173604075189651</v>
+      </c>
+      <c r="E65">
+        <v>-0.008414922084252627</v>
+      </c>
+      <c r="F65">
+        <v>-0.0209639966438905</v>
+      </c>
+      <c r="G65">
+        <v>0.04162943965442257</v>
+      </c>
+      <c r="H65">
+        <v>-0.03530584127363855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04552690734156054</v>
+        <v>0.04402303013738407</v>
       </c>
       <c r="C66">
-        <v>0.04947743995364746</v>
+        <v>-0.06903952062690126</v>
       </c>
       <c r="D66">
-        <v>-0.1132503143763746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1286838558463207</v>
+      </c>
+      <c r="E66">
+        <v>-0.0249840461908106</v>
+      </c>
+      <c r="F66">
+        <v>0.01168894447502599</v>
+      </c>
+      <c r="G66">
+        <v>0.01175092583830297</v>
+      </c>
+      <c r="H66">
+        <v>0.06125543046914894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04576194951162971</v>
+        <v>0.03873210344712076</v>
       </c>
       <c r="C67">
-        <v>0.03101908965389922</v>
+        <v>-0.02879599348001803</v>
       </c>
       <c r="D67">
-        <v>-0.028271791224491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02485962480474412</v>
+      </c>
+      <c r="E67">
+        <v>-0.0260991257370113</v>
+      </c>
+      <c r="F67">
+        <v>-0.001970836459930448</v>
+      </c>
+      <c r="G67">
+        <v>0.02955945852939355</v>
+      </c>
+      <c r="H67">
+        <v>0.03732061459382822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1691371356031779</v>
+        <v>0.1906721518312736</v>
       </c>
       <c r="C68">
-        <v>-0.2663155104578865</v>
+        <v>0.2141802950836249</v>
       </c>
       <c r="D68">
-        <v>0.03229852472455751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01404719538993817</v>
+      </c>
+      <c r="E68">
+        <v>-0.05378164608085901</v>
+      </c>
+      <c r="F68">
+        <v>-0.02445293423306505</v>
+      </c>
+      <c r="G68">
+        <v>0.008672480319332572</v>
+      </c>
+      <c r="H68">
+        <v>-0.01081232675826178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08564806699731348</v>
+        <v>0.0791138496996748</v>
       </c>
       <c r="C69">
-        <v>0.07689389958780087</v>
+        <v>-0.09713681169620275</v>
       </c>
       <c r="D69">
-        <v>-0.05207503335713552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04662780870166998</v>
+      </c>
+      <c r="E69">
+        <v>-0.03145517825389162</v>
+      </c>
+      <c r="F69">
+        <v>-0.001100390781156411</v>
+      </c>
+      <c r="G69">
+        <v>-0.03877719324611676</v>
+      </c>
+      <c r="H69">
+        <v>0.02184238679832643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1407729773264792</v>
+        <v>0.1748934043153208</v>
       </c>
       <c r="C71">
-        <v>-0.2496129795904633</v>
+        <v>0.2229694055978092</v>
       </c>
       <c r="D71">
-        <v>-0.009011575509068301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03613903436435724</v>
+      </c>
+      <c r="E71">
+        <v>-0.04993130182231398</v>
+      </c>
+      <c r="F71">
+        <v>-0.02255198008620301</v>
+      </c>
+      <c r="G71">
+        <v>-0.03761882998684356</v>
+      </c>
+      <c r="H71">
+        <v>0.01424723219791885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09872422789012245</v>
+        <v>0.1013892309354233</v>
       </c>
       <c r="C72">
-        <v>0.03588118762786281</v>
+        <v>-0.06157094827481216</v>
       </c>
       <c r="D72">
-        <v>-0.09390270041044217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09403801715154918</v>
+      </c>
+      <c r="E72">
+        <v>0.02098267320986464</v>
+      </c>
+      <c r="F72">
+        <v>-0.02904941269578722</v>
+      </c>
+      <c r="G72">
+        <v>-0.02152508139703205</v>
+      </c>
+      <c r="H72">
+        <v>0.02892189158444084</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3171217615894756</v>
+        <v>0.2681369353324428</v>
       </c>
       <c r="C73">
-        <v>0.008183779749226325</v>
+        <v>-0.08028599569674878</v>
       </c>
       <c r="D73">
-        <v>-0.2868631298868156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.201815737071895</v>
+      </c>
+      <c r="E73">
+        <v>0.6692067876359428</v>
+      </c>
+      <c r="F73">
+        <v>-0.09298170826886748</v>
+      </c>
+      <c r="G73">
+        <v>0.04127697052642405</v>
+      </c>
+      <c r="H73">
+        <v>-0.1164058028130603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1034606896187131</v>
+        <v>0.1031136946717445</v>
       </c>
       <c r="C74">
-        <v>0.06487112123902672</v>
+        <v>-0.0876326010816318</v>
       </c>
       <c r="D74">
-        <v>-0.02297939743822264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.003057449974073898</v>
+      </c>
+      <c r="E74">
+        <v>-0.08149442480968146</v>
+      </c>
+      <c r="F74">
+        <v>-0.04429121814224564</v>
+      </c>
+      <c r="G74">
+        <v>-0.06200509695735829</v>
+      </c>
+      <c r="H74">
+        <v>-0.05681542553135554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2445680563942796</v>
+        <v>0.2396855191872906</v>
       </c>
       <c r="C75">
-        <v>0.1437247627622669</v>
+        <v>-0.1639407287656407</v>
       </c>
       <c r="D75">
-        <v>0.06941593289713754</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1110455920845588</v>
+      </c>
+      <c r="E75">
+        <v>-0.07797939646822934</v>
+      </c>
+      <c r="F75">
+        <v>0.01670227610388375</v>
+      </c>
+      <c r="G75">
+        <v>-0.09799283075735528</v>
+      </c>
+      <c r="H75">
+        <v>-0.1502153589857967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1233135512249112</v>
+        <v>0.1266021746904694</v>
       </c>
       <c r="C76">
-        <v>0.08671697236745547</v>
+        <v>-0.109331553643442</v>
       </c>
       <c r="D76">
-        <v>0.009876031537239588</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02123888174791494</v>
+      </c>
+      <c r="E76">
+        <v>-0.117408961616939</v>
+      </c>
+      <c r="F76">
+        <v>-0.01350499303693235</v>
+      </c>
+      <c r="G76">
+        <v>-0.06410380862689626</v>
+      </c>
+      <c r="H76">
+        <v>-0.02347811386580627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07322149607173711</v>
+        <v>0.06578409160172564</v>
       </c>
       <c r="C77">
-        <v>0.05250547746761276</v>
+        <v>-0.06399669636686436</v>
       </c>
       <c r="D77">
-        <v>-0.0655505901705586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1285115169513913</v>
+      </c>
+      <c r="E77">
+        <v>-0.1277991985061338</v>
+      </c>
+      <c r="F77">
+        <v>0.2969603845554949</v>
+      </c>
+      <c r="G77">
+        <v>0.02665364486974181</v>
+      </c>
+      <c r="H77">
+        <v>-0.1933738456800778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03680650810598499</v>
+        <v>0.04041692927853602</v>
       </c>
       <c r="C78">
-        <v>0.0405182097775991</v>
+        <v>-0.05965011780691685</v>
       </c>
       <c r="D78">
-        <v>-0.1102555754809598</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1234220288165647</v>
+      </c>
+      <c r="E78">
+        <v>-0.03105519532036164</v>
+      </c>
+      <c r="F78">
+        <v>-0.01920891154419905</v>
+      </c>
+      <c r="G78">
+        <v>-0.02855828172541913</v>
+      </c>
+      <c r="H78">
+        <v>0.04379232967053265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002148173825260269</v>
+        <v>0.04114565372349919</v>
       </c>
       <c r="C79">
-        <v>-0.002177394675889671</v>
+        <v>-0.08187175931665476</v>
       </c>
       <c r="D79">
-        <v>-0.01744879568795943</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03333847361431044</v>
+      </c>
+      <c r="E79">
+        <v>-0.1673140151886415</v>
+      </c>
+      <c r="F79">
+        <v>-0.0788215293519389</v>
+      </c>
+      <c r="G79">
+        <v>-0.5556289395318625</v>
+      </c>
+      <c r="H79">
+        <v>-0.486439941918098</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03193175272689552</v>
+        <v>0.02648427775494141</v>
       </c>
       <c r="C80">
-        <v>0.01765429856030834</v>
+        <v>-0.03687369417432736</v>
       </c>
       <c r="D80">
-        <v>-0.02987214669850612</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03555891784543962</v>
+      </c>
+      <c r="E80">
+        <v>-0.01475069013797985</v>
+      </c>
+      <c r="F80">
+        <v>0.03754987513198115</v>
+      </c>
+      <c r="G80">
+        <v>0.04685443599677297</v>
+      </c>
+      <c r="H80">
+        <v>0.03954576352609813</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1395417182286627</v>
+        <v>0.1323045057971699</v>
       </c>
       <c r="C81">
-        <v>0.09914825576164647</v>
+        <v>-0.1163361187920949</v>
       </c>
       <c r="D81">
-        <v>0.04308749545491056</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07025794777568058</v>
+      </c>
+      <c r="E81">
+        <v>-0.1123460979631282</v>
+      </c>
+      <c r="F81">
+        <v>-0.003379166617114435</v>
+      </c>
+      <c r="G81">
+        <v>-0.05585386303778667</v>
+      </c>
+      <c r="H81">
+        <v>-0.04938053512827684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2804030103844753</v>
+        <v>0.2500710701735436</v>
       </c>
       <c r="C82">
-        <v>0.2742378457616212</v>
+        <v>-0.2472155668893911</v>
       </c>
       <c r="D82">
-        <v>0.1950096304567664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2148484716691891</v>
+      </c>
+      <c r="E82">
+        <v>-0.001093470314948564</v>
+      </c>
+      <c r="F82">
+        <v>-0.04440843616161642</v>
+      </c>
+      <c r="G82">
+        <v>-0.2381455569101291</v>
+      </c>
+      <c r="H82">
+        <v>0.4712521478250243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02820169689936493</v>
+        <v>0.02348377232821872</v>
       </c>
       <c r="C83">
-        <v>0.04773692449395437</v>
+        <v>-0.05053700057881141</v>
       </c>
       <c r="D83">
-        <v>-0.05786952377811489</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05237719388974139</v>
+      </c>
+      <c r="E83">
+        <v>-0.005742532253990529</v>
+      </c>
+      <c r="F83">
+        <v>0.02022360996885859</v>
+      </c>
+      <c r="G83">
+        <v>-0.002276507816412967</v>
+      </c>
+      <c r="H83">
+        <v>0.03122031112188392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001265297377234047</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004188586701992389</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.009191694982456951</v>
+      </c>
+      <c r="E84">
+        <v>-0.01042424349894614</v>
+      </c>
+      <c r="F84">
+        <v>-0.005032255591384392</v>
+      </c>
+      <c r="G84">
+        <v>0.008619710001902533</v>
+      </c>
+      <c r="H84">
+        <v>0.00476561165882069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1824829857665927</v>
+        <v>0.1648283213657993</v>
       </c>
       <c r="C85">
-        <v>0.1018021063843589</v>
+        <v>-0.1299473014503659</v>
       </c>
       <c r="D85">
-        <v>0.0501350743318788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.07961888028196137</v>
+      </c>
+      <c r="E85">
+        <v>-0.03796779807113649</v>
+      </c>
+      <c r="F85">
+        <v>-0.03449470110208578</v>
+      </c>
+      <c r="G85">
+        <v>-0.09884338623608604</v>
+      </c>
+      <c r="H85">
+        <v>-0.1248590272221025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01190380162425887</v>
+        <v>0.01823830173364172</v>
       </c>
       <c r="C86">
-        <v>0.02154143441061042</v>
+        <v>-0.01859755177612266</v>
       </c>
       <c r="D86">
-        <v>-0.1359711821026021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1223286583764302</v>
+      </c>
+      <c r="E86">
+        <v>-0.0201800627771333</v>
+      </c>
+      <c r="F86">
+        <v>0.005562935538207366</v>
+      </c>
+      <c r="G86">
+        <v>-0.03091652586276249</v>
+      </c>
+      <c r="H86">
+        <v>0.07107647257547711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02559094082481455</v>
+        <v>0.0314625126031319</v>
       </c>
       <c r="C87">
-        <v>-0.0008036289271537889</v>
+        <v>-0.02271460959443823</v>
       </c>
       <c r="D87">
-        <v>-0.08661588453269216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1246629963815788</v>
+      </c>
+      <c r="E87">
+        <v>-0.0891836618377842</v>
+      </c>
+      <c r="F87">
+        <v>0.01972491776545553</v>
+      </c>
+      <c r="G87">
+        <v>0.007488203383457812</v>
+      </c>
+      <c r="H87">
+        <v>0.03509127824938291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08337901793215374</v>
+        <v>0.07446958613208715</v>
       </c>
       <c r="C88">
-        <v>0.04284062820926476</v>
+        <v>-0.05645708022645617</v>
       </c>
       <c r="D88">
-        <v>-0.03826817080141589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02619493321529846</v>
+      </c>
+      <c r="E88">
+        <v>-0.03328417747562081</v>
+      </c>
+      <c r="F88">
+        <v>0.002070324063180662</v>
+      </c>
+      <c r="G88">
+        <v>0.01119077675598201</v>
+      </c>
+      <c r="H88">
+        <v>0.01607972395454105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2062403976829355</v>
+        <v>0.2616963574820811</v>
       </c>
       <c r="C89">
-        <v>-0.3596045516904136</v>
+        <v>0.3580141836145355</v>
       </c>
       <c r="D89">
-        <v>0.06625068558118812</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01372976423577335</v>
+      </c>
+      <c r="E89">
+        <v>-0.06048963341280805</v>
+      </c>
+      <c r="F89">
+        <v>0.04677375649601687</v>
+      </c>
+      <c r="G89">
+        <v>-0.02895769827830671</v>
+      </c>
+      <c r="H89">
+        <v>0.06114297167424931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1973524396922631</v>
+        <v>0.2316036888844498</v>
       </c>
       <c r="C90">
-        <v>-0.292447887507251</v>
+        <v>0.2664149006393322</v>
       </c>
       <c r="D90">
-        <v>0.05703972980318674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.008822205154658501</v>
+      </c>
+      <c r="E90">
+        <v>-0.05228437659034635</v>
+      </c>
+      <c r="F90">
+        <v>-0.005349414963310023</v>
+      </c>
+      <c r="G90">
+        <v>0.03655895258353017</v>
+      </c>
+      <c r="H90">
+        <v>0.04952641100155032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.177412606894688</v>
+        <v>0.1693395512061643</v>
       </c>
       <c r="C91">
-        <v>0.1398622549433318</v>
+        <v>-0.1574731048013093</v>
       </c>
       <c r="D91">
-        <v>0.0642500854597769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0842111073089538</v>
+      </c>
+      <c r="E91">
+        <v>-0.09681958166622345</v>
+      </c>
+      <c r="F91">
+        <v>-0.01609789284616644</v>
+      </c>
+      <c r="G91">
+        <v>-0.08901925132087256</v>
+      </c>
+      <c r="H91">
+        <v>-0.1329345855006314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1662085679666966</v>
+        <v>0.2076212373997697</v>
       </c>
       <c r="C92">
-        <v>-0.2876479770656887</v>
+        <v>0.2773996463756576</v>
       </c>
       <c r="D92">
-        <v>0.01813289041261227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01335425933995455</v>
+      </c>
+      <c r="E92">
+        <v>-0.08728967126741276</v>
+      </c>
+      <c r="F92">
+        <v>0.03856421328183176</v>
+      </c>
+      <c r="G92">
+        <v>-0.002037676212572338</v>
+      </c>
+      <c r="H92">
+        <v>0.03491649206554542</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.228561636195413</v>
+        <v>0.2548999946228543</v>
       </c>
       <c r="C93">
-        <v>-0.3157137993541533</v>
+        <v>0.2817517878898718</v>
       </c>
       <c r="D93">
-        <v>0.03728491607016494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01287390598000244</v>
+      </c>
+      <c r="E93">
+        <v>-0.02482135561647642</v>
+      </c>
+      <c r="F93">
+        <v>-0.03297879715743871</v>
+      </c>
+      <c r="G93">
+        <v>-0.01317787042111379</v>
+      </c>
+      <c r="H93">
+        <v>0.01166218875410924</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3846024027888448</v>
+        <v>0.3386962067111317</v>
       </c>
       <c r="C94">
-        <v>0.2579830311488536</v>
+        <v>-0.2517774451748807</v>
       </c>
       <c r="D94">
-        <v>0.4700981745220127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4466582127700315</v>
+      </c>
+      <c r="E94">
+        <v>-0.1157060072029495</v>
+      </c>
+      <c r="F94">
+        <v>0.03434337688699958</v>
+      </c>
+      <c r="G94">
+        <v>0.6092725099475534</v>
+      </c>
+      <c r="H94">
+        <v>-0.05305677052780104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08587307724807543</v>
+        <v>0.07450457704077042</v>
       </c>
       <c r="C95">
-        <v>0.0647032954806244</v>
+        <v>-0.05843745719253372</v>
       </c>
       <c r="D95">
-        <v>-0.08811702701678531</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08973205579813782</v>
+      </c>
+      <c r="E95">
+        <v>0.1008926258116218</v>
+      </c>
+      <c r="F95">
+        <v>0.9058290122805356</v>
+      </c>
+      <c r="G95">
+        <v>-0.03996448966306904</v>
+      </c>
+      <c r="H95">
+        <v>-0.04541124505297182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1792691844256658</v>
+        <v>0.1674232031943618</v>
       </c>
       <c r="C98">
-        <v>0.009333084362254388</v>
+        <v>-0.05381074588682334</v>
       </c>
       <c r="D98">
-        <v>-0.1651665510567164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1337373659779504</v>
+      </c>
+      <c r="E98">
+        <v>0.290824791287873</v>
+      </c>
+      <c r="F98">
+        <v>-0.0835091377933853</v>
+      </c>
+      <c r="G98">
+        <v>-0.02584867410099827</v>
+      </c>
+      <c r="H98">
+        <v>-0.01953681147990215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002980538948784489</v>
+        <v>0.005758170912363855</v>
       </c>
       <c r="C101">
-        <v>0.008438574886839658</v>
+        <v>-0.01941003196706591</v>
       </c>
       <c r="D101">
-        <v>-0.05927330227319244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07788299282268735</v>
+      </c>
+      <c r="E101">
+        <v>-0.04918063573641185</v>
+      </c>
+      <c r="F101">
+        <v>-0.0002358833122944974</v>
+      </c>
+      <c r="G101">
+        <v>-0.01298325423387937</v>
+      </c>
+      <c r="H101">
+        <v>0.09959606455636486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1257605716387497</v>
+        <v>0.1141329682126443</v>
       </c>
       <c r="C102">
-        <v>0.1094398801768007</v>
+        <v>-0.1176533316815895</v>
       </c>
       <c r="D102">
-        <v>0.03130770916323607</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05058926434791904</v>
+      </c>
+      <c r="E102">
+        <v>-0.02967516049641264</v>
+      </c>
+      <c r="F102">
+        <v>0.02000629243408579</v>
+      </c>
+      <c r="G102">
+        <v>-0.05894331770365623</v>
+      </c>
+      <c r="H102">
+        <v>0.008301307371075369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
